--- a/calc.xlsx
+++ b/calc.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veit.ISYSINST\Arbeit\Game Jam\whoap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skletz/Dropbox/Share/gamejam18/whoap/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FF5ED1-979B-9E43-A7CB-64A74DC10A15}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="8415"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28200" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MovementCards" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,31 +93,31 @@
     <t>Spontanbeschleunigung</t>
   </si>
   <si>
-    <t xml:space="preserve"> +1 Move and Jump over Asterroids</t>
-  </si>
-  <si>
     <t>Target player shows you their next turn</t>
   </si>
   <si>
-    <t>Immeadietly stop the turn</t>
-  </si>
-  <si>
     <t>Bürokratenbehinderung</t>
   </si>
   <si>
-    <t>Spionagesattelit</t>
-  </si>
-  <si>
     <t>Freizügige Kaiserliche Kompensation</t>
   </si>
   <si>
     <t>Next turn is open</t>
+  </si>
+  <si>
+    <t>Immediately stop the turn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +1 move and Jump over asteroids</t>
+  </si>
+  <si>
+    <t>Spionagesatellit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,19 +428,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="19.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -456,7 +458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -470,7 +472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -490,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -516,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -536,7 +538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -553,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -567,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -578,16 +580,16 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -604,10 +606,10 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -618,13 +620,13 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -635,13 +637,13 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -652,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -663,7 +665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -674,7 +676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -685,7 +687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -696,7 +698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -707,7 +709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D21">
         <f>SUM(D2:D17)</f>
         <v>64</v>
